--- a/EngineTest.xlsx
+++ b/EngineTest.xlsx
@@ -10,14 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L16"/>
+  <oleSize ref="A1:J16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Beta</t>
   </si>
@@ -445,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +540,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>200</v>
@@ -633,11 +634,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -645,12 +641,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -665,4 +723,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>